--- a/rolesAndPermissions.xlsx
+++ b/rolesAndPermissions.xlsx
@@ -227,50 +227,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="I20:K20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,374 +569,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="M1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="16"/>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="1"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="15"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="16" t="s">
+      <c r="G3" s="15"/>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7">
         <v>123456</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="E4" s="14">
+      <c r="C4" s="15"/>
+      <c r="E4" s="5">
         <v>2</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="7">
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="7">
         <v>2</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="16" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7">
         <v>123456</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7">
         <v>2</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="7">
+      <c r="C5" s="15"/>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="3">
         <v>3</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7">
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="3">
         <v>5</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7">
+      <c r="C7" s="15"/>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="3">
         <v>6</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="7">
+      <c r="C8" s="15"/>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="3">
         <v>7</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7">
+      <c r="C9" s="15"/>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="3">
         <v>8</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="7">
+      <c r="C10" s="15"/>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="3">
         <v>9</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="7">
+      <c r="C11" s="15"/>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="3">
         <v>10</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7">
+      <c r="C12" s="15"/>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="3">
         <v>11</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="7">
+      <c r="C13" s="15"/>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="7">
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -944,76 +947,76 @@
         <v>2</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="14">
+      <c r="K15" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="I16" s="12">
+      <c r="I16" s="9">
         <v>2</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14">
+      <c r="J16" s="10"/>
+      <c r="K16" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="10"/>
       <c r="I17" s="11">
         <v>2</v>
       </c>
       <c r="J17" s="11"/>
-      <c r="K17" s="14">
+      <c r="K17" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="15"/>
       <c r="I18" s="11">
         <v>2</v>
       </c>
       <c r="J18" s="11"/>
-      <c r="K18" s="14">
+      <c r="K18" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="15"/>
       <c r="I19" s="11">
         <v>2</v>
       </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="14">
+      <c r="K19" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -1024,105 +1027,102 @@
         <v>2</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="14">
+      <c r="K20" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="1" t="s">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="105">
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
@@ -1139,8 +1139,80 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O3" r:id="rId1"/>
